--- a/_Doc/20221115/Commission.xlsx
+++ b/_Doc/20221115/Commission.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FB40A1-C02E-41DF-AAA1-F97C7696AC3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7100C6-5A4C-4806-B4DD-D43590F96465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,16 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,8 +282,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -727,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -735,67 +735,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="2">
@@ -804,7 +804,7 @@
       <c r="C8" s="2">
         <v>10000</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="1">
@@ -812,7 +812,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="2">
@@ -821,7 +821,7 @@
       <c r="C9" s="2">
         <v>100000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="1">
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
       <c r="B10" s="2">
@@ -838,7 +838,7 @@
       <c r="C10" s="2">
         <v>1000000</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="1">
@@ -846,44 +846,44 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="4">
         <v>1</v>
       </c>
       <c r="B47" s="2">
@@ -892,12 +892,12 @@
       <c r="C47" s="2">
         <v>10000</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="4">
         <v>2</v>
       </c>
       <c r="B48" s="2">
@@ -906,12 +906,12 @@
       <c r="C48" s="2">
         <v>100000</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="4">
         <v>3</v>
       </c>
       <c r="B49" s="2">
@@ -920,30 +920,30 @@
       <c r="C49" s="2">
         <v>1000000</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B53" s="2">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="2">
@@ -967,7 +967,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="2">
@@ -979,39 +979,39 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="6"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="4">
         <v>1</v>
       </c>
       <c r="B82" s="2">
@@ -1020,12 +1020,12 @@
       <c r="C82" s="2">
         <v>500000</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="4">
         <v>2</v>
       </c>
       <c r="B83" s="2">
@@ -1034,34 +1034,34 @@
       <c r="C83" s="2">
         <v>10000000</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B87" s="2">
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="2">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B89" s="2">
@@ -1121,45 +1121,45 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="13">
         <f>SUM(B87:B89)</f>
         <v>200000</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16">
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13">
         <f>SUM(E87:E89)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="6"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94" s="4">
         <v>1</v>
       </c>
       <c r="B94" s="2">
@@ -1168,34 +1168,34 @@
       <c r="C94" s="2">
         <v>9999999999</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="2">
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B99" s="2">
@@ -1235,7 +1235,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B100" s="2">
@@ -1255,16 +1255,16 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="13">
         <f>SUM(B98:B100)</f>
         <v>500000</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16">
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13">
         <f>SUM(E98:E100)</f>
         <v>25000</v>
       </c>
